--- a/docs/ST3a/ST3a_31.07.24_output.xlsx
+++ b/docs/ST3a/ST3a_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,869 +505,1038 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731319980.8834217</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731319980.8834217.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731319980.8834217.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>288.93</v>
       </c>
-      <c r="J3" t="n">
-        <v>288.93</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="L3" t="n">
+        <v>289.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.2199999999999704</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731319988.1152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731320000.6489418</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319988.1152.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731320000.6489418.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>133.03</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>133.54</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5099999999999909</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731320011.852881</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731320021.8493373</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731320011.852881.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731320021.8493373.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6801</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6775</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>26</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731320021.9052532</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731320021.9052532.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731320021.9052532.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6778.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>6778.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>6747.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-31</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731320048.0399375</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731320055.5770354</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731320048.0399375.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731320055.5770354.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>512.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>513.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731320055.7484515</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731320055.7484515.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731320055.7484515.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>514.05</v>
       </c>
-      <c r="J8" t="n">
-        <v>514.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="L8" t="n">
+        <v>514.95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.9000000000000909</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731320073.5080285</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731320076.2564127</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731320073.5080285.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731320076.2564127.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1038.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1041.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.800000000000182</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731320087.419617</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731320094.5298982</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731320087.419617.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731320094.5298982.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>11.95</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>11.959</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731320124.8632567</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731320124.8632567.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731320124.8632567.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>129.88</v>
       </c>
-      <c r="J11" t="n">
-        <v>129.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>129.82</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731320146.2171538</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731320146.2171538.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731320146.2171538.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>164.82</v>
       </c>
-      <c r="J12" t="n">
-        <v>164.82</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8600000000000136</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731320193.0129442</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731320194.328973</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731320193.0129442.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731320194.328973.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>1422</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1416</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731320194.3893623</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731320197.366834</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731320194.3893623.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731320197.366834.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1417</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731320219.5145917</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731320230.5977626</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731320219.5145917.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731320230.5977626.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>60.82</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>60.88</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731320313.8191214</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731320316.2470787</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731320313.8191214.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731320316.2470787.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>373.44</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>373.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731320316.2620103</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731320316.2620103.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731320316.2620103.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>373.8</v>
       </c>
-      <c r="J17" t="n">
-        <v>373.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-2.629999999999995</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731320332.724008</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731320338.6813965</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/FEES1731320332.724008.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/FEES1731320338.6813965.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.001059999999999992</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-1.07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731320338.6963305</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731320338.6963305.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731320338.6963305.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.09968</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0002399999999999902</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731320351.6296637</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731320371.494053</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731320351.6296637.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731320371.494053.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>34.655</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>34.635</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -1366,7 +1550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,6 +1574,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1398,11 +1597,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3600000000000136</v>
+        <v>-2.269999999999982</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>-1.134999999999991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1416,6 +1624,15 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>4.299999999999955</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1424,11 +1641,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001059999999999992</v>
+        <v>-0.0008200000000000013</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.0004100000000000006</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.8299999999999998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1437,11 +1663,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>-5</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.07999999999999996</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1450,11 +1685,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.25</v>
+        <v>0.3499999999999091</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1749999999999545</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1468,6 +1712,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1481,6 +1734,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.009000000000000341</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1494,6 +1756,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.5099999999999909</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1502,11 +1773,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1515,11 +1795,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.8600000000000136</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.8600000000000136</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1533,6 +1822,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>2.800000000000182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1546,6 +1844,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1554,11 +1861,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.2199999999999704</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.2199999999999704</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1572,6 +1888,11 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
